--- a/Znode9X/TestData/LoginTestData.xlsx
+++ b/Znode9X/TestData/LoginTestData.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7545" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7545" windowWidth="15990" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="58">
   <si>
     <t>S.No.</t>
   </si>
@@ -184,13 +184,20 @@
   </si>
   <si>
     <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +233,13 @@
       <color rgb="FF263238"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF263238"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,41 +294,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,10 +343,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -489,7 +504,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -498,13 +513,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -514,7 +529,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -523,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,12 +557,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -578,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -597,7 +612,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -609,7 +624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,8 +633,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,29 +745,29 @@
       <c r="C13" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -877,10 +892,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,10 +924,10 @@
         <v>15</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1074,7 @@
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1069,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -1261,13 +1276,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -1845,26 +1860,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F12" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
-    <hyperlink ref="F23" r:id="rId5"/>
-    <hyperlink ref="F29" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F7"/>
+    <hyperlink r:id="rId3" ref="F12"/>
+    <hyperlink r:id="rId4" ref="F17"/>
+    <hyperlink r:id="rId5" ref="F23"/>
+    <hyperlink r:id="rId6" ref="F29"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Znode9X/TestData/LoginTestData.xlsx
+++ b/Znode9X/TestData/LoginTestData.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7545"/>
+    <workbookView activeTab="1" windowHeight="7545" windowWidth="15990" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="62">
   <si>
     <t>S.No.</t>
   </si>
@@ -209,6 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,75 +343,75 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,10 +425,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -585,7 +586,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -594,13 +595,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -610,7 +611,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -619,7 +620,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -628,7 +629,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -638,12 +639,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -674,7 +675,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -693,7 +694,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -705,17 +706,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,18 +834,18 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G4:G5" type="list">
       <formula1>$G$4:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H5:H6" type="list">
       <formula1>$H$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Sheet3!$A$1:$A$2</xm:f>
           </x14:formula1>
@@ -857,24 +858,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1047,7 +1048,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -1181,7 +1182,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1316,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>37</v>
       </c>
@@ -1475,7 +1476,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>38</v>
       </c>
@@ -1762,8 +1763,12 @@
         <v>15</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="I33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
@@ -1791,7 +1796,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.75" r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>54</v>
       </c>
@@ -1895,7 +1900,7 @@
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>54</v>
       </c>
@@ -1953,21 +1958,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F35" r:id="rId3"/>
-    <hyperlink ref="F12" r:id="rId4"/>
-    <hyperlink ref="F17" r:id="rId5"/>
-    <hyperlink ref="F23" r:id="rId6"/>
-    <hyperlink ref="F29" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F7"/>
+    <hyperlink r:id="rId3" ref="F35"/>
+    <hyperlink r:id="rId4" ref="F12"/>
+    <hyperlink r:id="rId5" ref="F17"/>
+    <hyperlink r:id="rId6" ref="F23"/>
+    <hyperlink r:id="rId7" ref="F29"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1985,6 +1990,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>